--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_22.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_22.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_0</t>
+          <t>model_1_22_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996066529805474</v>
+        <v>0.9488496924475092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8283248325594262</v>
+        <v>0.745530586813377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8196798649562577</v>
+        <v>0.7565968487307697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996589015738766</v>
+        <v>0.9578614558789308</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001637317469591155</v>
+        <v>0.1793079443909542</v>
       </c>
       <c r="G2" t="n">
-        <v>1.147992635166577</v>
+        <v>1.701638137702855</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6449946674892975</v>
+        <v>0.870638958764425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001498953424868344</v>
+        <v>0.1345959068465856</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06326684654634111</v>
+        <v>1.38454786862401</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04046377972447896</v>
+        <v>0.4234476879036586</v>
       </c>
       <c r="L2" t="n">
-        <v>1.025174209244966</v>
+        <v>0.9303485173753316</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04110104380619947</v>
+        <v>0.4301165656957485</v>
       </c>
       <c r="N2" t="n">
-        <v>142.8293921312399</v>
+        <v>37.4373011830783</v>
       </c>
       <c r="O2" t="n">
-        <v>284.1645646744563</v>
+        <v>74.40188477130411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_1</t>
+          <t>model_1_22_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996127827682735</v>
+        <v>0.9488189406295332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8282452393711368</v>
+        <v>0.7454157115140707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8195133283153583</v>
+        <v>0.7575443885599393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996642574919675</v>
+        <v>0.9584833668330609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001611802064535129</v>
+        <v>0.1794157452142804</v>
       </c>
       <c r="G3" t="n">
-        <v>1.148524875183161</v>
+        <v>1.702406309358268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6455903593974452</v>
+        <v>0.8672496637370015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001475416899481622</v>
+        <v>0.1326094436074083</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06244775282101948</v>
+        <v>1.375596921541805</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04014725475714535</v>
+        <v>0.4235749582001755</v>
       </c>
       <c r="L3" t="n">
-        <v>1.024781902830497</v>
+        <v>0.9303066425593643</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04077953388703923</v>
+        <v>0.430245840372212</v>
       </c>
       <c r="N3" t="n">
-        <v>142.8608048623736</v>
+        <v>37.43609913448552</v>
       </c>
       <c r="O3" t="n">
-        <v>284.1959774055899</v>
+        <v>74.40068272271134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_2</t>
+          <t>model_1_22_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996298430636843</v>
+        <v>0.9488942772470577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8279575195095727</v>
+        <v>0.7454039747447669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8189981543628232</v>
+        <v>0.7598664575628067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996249401240825</v>
+        <v>0.9607375021435043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001540788129431984</v>
+        <v>0.1791516519043466</v>
       </c>
       <c r="G4" t="n">
-        <v>1.150448859222268</v>
+        <v>1.702484793188645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6474331067541612</v>
+        <v>0.8589437575550417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001648196656685015</v>
+        <v>0.125409446725875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06599405923332743</v>
+        <v>1.353682776284499</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03925287415504734</v>
+        <v>0.4232631000977365</v>
       </c>
       <c r="L4" t="n">
-        <v>1.023690043924205</v>
+        <v>0.9304092285917381</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03987106768451078</v>
+        <v>0.4299290708164034</v>
       </c>
       <c r="N4" t="n">
-        <v>142.950922442218</v>
+        <v>37.43904522896941</v>
       </c>
       <c r="O4" t="n">
-        <v>284.2860949854344</v>
+        <v>74.40362881719523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_3</t>
+          <t>model_1_22_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996474728029372</v>
+        <v>0.9489118879186131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8278012194964846</v>
+        <v>0.7453845503653544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8185275539852175</v>
+        <v>0.7602028126213927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995581000127215</v>
+        <v>0.9611128320794439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001467403869133618</v>
+        <v>0.1790899175088549</v>
       </c>
       <c r="G5" t="n">
-        <v>1.151494038129484</v>
+        <v>1.702614684103218</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6491164170178789</v>
+        <v>0.8577406350134666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00194192481891056</v>
+        <v>0.1242105948398367</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06531978908450765</v>
+        <v>1.350683572234457</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03830670788691738</v>
+        <v>0.4231901670748682</v>
       </c>
       <c r="L5" t="n">
-        <v>1.022561740612019</v>
+        <v>0.9304332090806647</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03891000024347705</v>
+        <v>0.4298549891713311</v>
       </c>
       <c r="N5" t="n">
-        <v>143.0485210299211</v>
+        <v>37.43973453363277</v>
       </c>
       <c r="O5" t="n">
-        <v>284.3836935731375</v>
+        <v>74.40431812185859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_4</t>
+          <t>model_1_22_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996819173225931</v>
+        <v>0.9488057574192278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8261508826803948</v>
+        <v>0.7453000684216731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8170900647348153</v>
+        <v>0.7584507370572646</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992169829085998</v>
+        <v>0.9591643302141549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001324027636506172</v>
+        <v>0.1794619590975091</v>
       </c>
       <c r="G6" t="n">
-        <v>1.162529848017778</v>
+        <v>1.703179615249619</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6542582327161521</v>
+        <v>0.8640077077151744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003440960324044401</v>
+        <v>0.1304343593533265</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0719760704931177</v>
+        <v>1.367287195506694</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03638719055527881</v>
+        <v>0.4236295068777777</v>
       </c>
       <c r="L6" t="n">
-        <v>1.020357291354038</v>
+        <v>0.9302886909538421</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03696025243267854</v>
+        <v>0.4303012481369577</v>
       </c>
       <c r="N6" t="n">
-        <v>143.2541538963821</v>
+        <v>37.43558404109377</v>
       </c>
       <c r="O6" t="n">
-        <v>284.5893264395986</v>
+        <v>74.4001676293196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_8</t>
+          <t>model_1_22_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996504554011882</v>
+        <v>0.9490297675981567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8252990321774014</v>
+        <v>0.744873143732492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8148476581823967</v>
+        <v>0.7624341959551945</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9984178791762456</v>
+        <v>0.9635710037762528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001454988724287506</v>
+        <v>0.178676689044828</v>
       </c>
       <c r="G7" t="n">
-        <v>1.168226176253706</v>
+        <v>1.706034462611981</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6622791909319506</v>
+        <v>0.849759106211497</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00695261322156905</v>
+        <v>0.1163588796081475</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0668424395375644</v>
+        <v>1.33342951781667</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0381443144424894</v>
+        <v>0.4227016548877329</v>
       </c>
       <c r="L7" t="n">
-        <v>1.022370854323952</v>
+        <v>0.930593726091107</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03874504926463322</v>
+        <v>0.4293587834055814</v>
       </c>
       <c r="N7" t="n">
-        <v>143.0655142560386</v>
+        <v>37.44435462550515</v>
       </c>
       <c r="O7" t="n">
-        <v>284.400686799255</v>
+        <v>74.40893821373098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_9</t>
+          <t>model_1_22_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996525749958326</v>
+        <v>0.9488846273642909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8252745926379618</v>
+        <v>0.7447264328924077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8148169203191072</v>
+        <v>0.7615736900200299</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9984276042248322</v>
+        <v>0.9621510608732275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001446165854994243</v>
+        <v>0.1791854796704993</v>
       </c>
       <c r="G8" t="n">
-        <v>1.168389603566473</v>
+        <v>1.707015518675166</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6623891384866535</v>
+        <v>0.8528370860465797</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006909876598443111</v>
+        <v>0.1208943591006033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06597583080750695</v>
+        <v>1.341430463310032</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03802848741396695</v>
+        <v>0.4233030588957506</v>
       </c>
       <c r="L8" t="n">
-        <v>1.022235200266714</v>
+        <v>0.930396088325843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03862739807619608</v>
+        <v>0.429969658925542</v>
       </c>
       <c r="N8" t="n">
-        <v>143.0776789253137</v>
+        <v>37.4386676206975</v>
       </c>
       <c r="O8" t="n">
-        <v>284.4128514685302</v>
+        <v>74.40325120892332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_7</t>
+          <t>model_1_22_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996580287663613</v>
+        <v>0.9491289776458379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8248175699893587</v>
+        <v>0.7447264203473711</v>
       </c>
       <c r="D9" t="n">
-        <v>0.815234369340788</v>
+        <v>0.7633607930107883</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985595060546227</v>
+        <v>0.964824827379106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001423464389569813</v>
+        <v>0.1783289071728542</v>
       </c>
       <c r="G9" t="n">
-        <v>1.171445716122077</v>
+        <v>1.707015602563882</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6608959475411864</v>
+        <v>0.8464447222708222</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006330235402915432</v>
+        <v>0.112354006436288</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07270768041351185</v>
+        <v>1.325809890780842</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03772882703676081</v>
+        <v>0.4222900746795433</v>
       </c>
       <c r="L9" t="n">
-        <v>1.021886158952874</v>
+        <v>0.9307288206241198</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03832301834759943</v>
+        <v>0.4289407212205421</v>
       </c>
       <c r="N9" t="n">
-        <v>143.1093233353348</v>
+        <v>37.44825128130745</v>
       </c>
       <c r="O9" t="n">
-        <v>284.4444958785512</v>
+        <v>74.41283486953327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_5</t>
+          <t>model_1_22_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996456999327039</v>
+        <v>0.9491400647982523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8247783638125229</v>
+        <v>0.7446639385056103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8150345481932459</v>
+        <v>0.7635397936590329</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985597632286674</v>
+        <v>0.9650451326523231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001474783488809701</v>
+        <v>0.1782900410427427</v>
       </c>
       <c r="G10" t="n">
-        <v>1.171707888007107</v>
+        <v>1.70743341892744</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6616106961996484</v>
+        <v>0.845804447331105</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006329105254297354</v>
+        <v>0.1116503231778791</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06534292733606484</v>
+        <v>1.324487747557408</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03840290990028881</v>
+        <v>0.4222440538867809</v>
       </c>
       <c r="L10" t="n">
-        <v>1.02267520430695</v>
+        <v>0.930743918023152</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03900771734239235</v>
+        <v>0.4288939756462977</v>
       </c>
       <c r="N10" t="n">
-        <v>143.0384881744246</v>
+        <v>37.44868722146666</v>
       </c>
       <c r="O10" t="n">
-        <v>284.373660717641</v>
+        <v>74.41327080969248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_6</t>
+          <t>model_1_22_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996563419072662</v>
+        <v>0.9491188389058449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8246123176177516</v>
+        <v>0.7430718631144175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8152556140177444</v>
+        <v>0.7661282035202919</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985798437401747</v>
+        <v>0.9676751801308817</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001430485985587302</v>
+        <v>0.1783644486331864</v>
       </c>
       <c r="G11" t="n">
-        <v>1.172818239676115</v>
+        <v>1.718079634399179</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6608199565635506</v>
+        <v>0.836545855342009</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006240861658924706</v>
+        <v>0.1032496146861687</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06474888169047699</v>
+        <v>1.303681818666239</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03782176602946116</v>
+        <v>0.4223321543917611</v>
       </c>
       <c r="L11" t="n">
-        <v>1.021994117934966</v>
+        <v>0.9307150146802995</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0384174210365299</v>
+        <v>0.4289834636461631</v>
       </c>
       <c r="N11" t="n">
-        <v>143.0994820847704</v>
+        <v>37.44785271531376</v>
       </c>
       <c r="O11" t="n">
-        <v>284.4346546279868</v>
+        <v>74.41243630353958</v>
       </c>
     </row>
   </sheetData>
